--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H2">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>651.7469430119295</v>
+        <v>288.4104099713443</v>
       </c>
       <c r="R2">
-        <v>5865.722487107366</v>
+        <v>2595.693689742098</v>
       </c>
       <c r="S2">
-        <v>0.2394208843011389</v>
+        <v>0.09535356368431745</v>
       </c>
       <c r="T2">
-        <v>0.2394208843011389</v>
+        <v>0.09535356368431745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H3">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>1050.499952722284</v>
+        <v>488.8908530352978</v>
       </c>
       <c r="R3">
-        <v>9454.49957450056</v>
+        <v>4400.01767731768</v>
       </c>
       <c r="S3">
-        <v>0.3859038087340447</v>
+        <v>0.1616359308743861</v>
       </c>
       <c r="T3">
-        <v>0.3859038087340447</v>
+        <v>0.1616359308743861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H4">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>331.8881249856292</v>
+        <v>465.0830988775584</v>
       </c>
       <c r="R4">
-        <v>2986.993124870663</v>
+        <v>4185.747889898025</v>
       </c>
       <c r="S4">
-        <v>0.1219199402852463</v>
+        <v>0.1537646678277917</v>
       </c>
       <c r="T4">
-        <v>0.1219199402852463</v>
+        <v>0.1537646678277917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H5">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>168.2994804903073</v>
+        <v>82.4802671024909</v>
       </c>
       <c r="R5">
-        <v>1514.695324412766</v>
+        <v>742.3224039224181</v>
       </c>
       <c r="S5">
-        <v>0.06182523888826912</v>
+        <v>0.02726942970830458</v>
       </c>
       <c r="T5">
-        <v>0.0618252388882691</v>
+        <v>0.02726942970830459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>27.70381255867911</v>
+        <v>26.34241543707912</v>
       </c>
       <c r="R6">
-        <v>249.334313028112</v>
+        <v>237.081738933712</v>
       </c>
       <c r="S6">
-        <v>0.01017706545835006</v>
+        <v>0.008709266729407725</v>
       </c>
       <c r="T6">
-        <v>0.01017706545835006</v>
+        <v>0.008709266729407725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
         <v>44.65360995576889</v>
@@ -883,10 +883,10 @@
         <v>401.88248960192</v>
       </c>
       <c r="S7">
-        <v>0.0164036163076451</v>
+        <v>0.01476327030315977</v>
       </c>
       <c r="T7">
-        <v>0.0164036163076451</v>
+        <v>0.01476327030315977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>14.10757120326844</v>
+        <v>42.47909153006668</v>
       </c>
       <c r="R8">
-        <v>126.968140829416</v>
+        <v>382.3118237706</v>
       </c>
       <c r="S8">
-        <v>0.00518245188419087</v>
+        <v>0.01404433619392106</v>
       </c>
       <c r="T8">
-        <v>0.005182451884190869</v>
+        <v>0.01404433619392106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>7.153907373434666</v>
+        <v>7.533464071532446</v>
       </c>
       <c r="R9">
-        <v>64.385166360912</v>
+        <v>67.801176643792</v>
       </c>
       <c r="S9">
-        <v>0.002628005927639334</v>
+        <v>0.00249069597099411</v>
       </c>
       <c r="T9">
-        <v>0.002628005927639334</v>
+        <v>0.00249069597099411</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H10">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>126.1001188337367</v>
+        <v>343.6829647554193</v>
       </c>
       <c r="R10">
-        <v>1134.90106950363</v>
+        <v>3093.146682798774</v>
       </c>
       <c r="S10">
-        <v>0.04632319688701528</v>
+        <v>0.1136276442666442</v>
       </c>
       <c r="T10">
-        <v>0.04632319688701527</v>
+        <v>0.1136276442666442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H11">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>203.2509247545333</v>
+        <v>582.5845808744267</v>
       </c>
       <c r="R11">
-        <v>1829.2583227908</v>
+        <v>5243.26122786984</v>
       </c>
       <c r="S11">
-        <v>0.074664740144188</v>
+        <v>0.192612728297257</v>
       </c>
       <c r="T11">
-        <v>0.07466474014418799</v>
+        <v>0.192612728297257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H12">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>64.21377568230166</v>
+        <v>554.214177968675</v>
       </c>
       <c r="R12">
-        <v>577.923981140715</v>
+        <v>4987.927601718075</v>
       </c>
       <c r="S12">
-        <v>0.02358909255043522</v>
+        <v>0.1832329731750611</v>
       </c>
       <c r="T12">
-        <v>0.02358909255043522</v>
+        <v>0.1832329731750611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H13">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>32.56261455007</v>
+        <v>98.28723843365934</v>
       </c>
       <c r="R13">
-        <v>293.06353095063</v>
+        <v>884.585145902934</v>
       </c>
       <c r="S13">
-        <v>0.01196195863183695</v>
+        <v>0.03249549296875522</v>
       </c>
       <c r="T13">
-        <v>0.01196195863183694</v>
+        <v>0.03249549296875523</v>
       </c>
     </row>
   </sheetData>
